--- a/RealVSProjected.xlsx
+++ b/RealVSProjected.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13E0743-FEDB-43B4-8A19-1EA4960F213B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3EBE7BB6-2E06-E445-8360-6D8D167AAAED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$45</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$2:$F$45</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,9 +31,6 @@
     <t>Actual Data</t>
   </si>
   <si>
-    <t>Projected Data (100 trials)</t>
-  </si>
-  <si>
     <t>Projected Data (50)</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>Projected Data (1)</t>
+  </si>
+  <si>
+    <t>Projected Data (100)</t>
   </si>
 </sst>
 </file>
@@ -176,15 +182,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Projected Data (100 trials)</c:v>
+                  <c:v>Actual Data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -203,141 +209,141 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$45</c:f>
+              <c:f>Sheet1!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>48.419925999999997</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7986899999999997</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.04318</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118.43189</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>212.54546999999999</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126.1498</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>244.98195999999999</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>317.5949</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>268.46143000000001</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>131.21796000000001</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>656.39</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>271.69015999999999</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>450.17860000000002</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>112.59019499999999</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>157.35004000000001</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>355.19851999999997</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>582.85645</c:v>
+                  <c:v>602</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>644.02949999999998</c:v>
+                  <c:v>605</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>788.6721</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>221.11475999999999</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>312.29415999999998</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>442.41469999999998</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>188.09863000000001</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>280.28701999999998</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1757.9523999999999</c:v>
+                  <c:v>1757</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1110.7936</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1686.8602000000001</c:v>
+                  <c:v>1669</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>426.92565999999999</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>650.09410000000003</c:v>
+                  <c:v>607</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>469.77005000000003</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1512.8975</c:v>
+                  <c:v>1505</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1062.9924000000001</c:v>
+                  <c:v>1058</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>721.41780000000006</c:v>
+                  <c:v>722</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1351.6233</c:v>
+                  <c:v>1330</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1525.5419999999999</c:v>
+                  <c:v>1508</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>376.90429999999998</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>372.24610000000001</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>160.47149999999999</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>305.07740000000001</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>63.356403</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>137.07653999999999</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>64.210710000000006</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>71.449700000000007</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>84.593509999999995</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -345,20 +351,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-08F3-4F53-94C0-AF3C2806A555}"/>
+              <c16:uniqueId val="{00000001-08F3-4F53-94C0-AF3C2806A555}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual Data</c:v>
+                  <c:v>Projected Data (100)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -377,141 +383,141 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$45</c:f>
+              <c:f>Sheet1!$B$2:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>48.419925999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.7986899999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>41.04318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119</c:v>
+                  <c:v>118.43189</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>203</c:v>
+                  <c:v>212.54546999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>122</c:v>
+                  <c:v>126.1498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>241</c:v>
+                  <c:v>244.98195999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>312</c:v>
+                  <c:v>317.5949</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>268</c:v>
+                  <c:v>268.46143000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>131</c:v>
+                  <c:v>131.21796000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>657</c:v>
+                  <c:v>656.39</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>242</c:v>
+                  <c:v>271.69015999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>405</c:v>
+                  <c:v>450.17860000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>94</c:v>
+                  <c:v>112.59019499999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>168</c:v>
+                  <c:v>157.35004000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>345</c:v>
+                  <c:v>355.19851999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>602</c:v>
+                  <c:v>582.85645</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>605</c:v>
+                  <c:v>644.02949999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>777</c:v>
+                  <c:v>788.6721</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218</c:v>
+                  <c:v>221.11475999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>304</c:v>
+                  <c:v>312.29415999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>463</c:v>
+                  <c:v>442.41469999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>166</c:v>
+                  <c:v>188.09863000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>263</c:v>
+                  <c:v>280.28701999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1757</c:v>
+                  <c:v>1757.9523999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1100</c:v>
+                  <c:v>1110.7936</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1669</c:v>
+                  <c:v>1686.8602000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>396</c:v>
+                  <c:v>426.92565999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>607</c:v>
+                  <c:v>650.09410000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>463</c:v>
+                  <c:v>469.77005000000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1505</c:v>
+                  <c:v>1512.8975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1058</c:v>
+                  <c:v>1062.9924000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>722</c:v>
+                  <c:v>721.41780000000006</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1330</c:v>
+                  <c:v>1351.6233</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1508</c:v>
+                  <c:v>1525.5419999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>366</c:v>
+                  <c:v>376.90429999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>363</c:v>
+                  <c:v>372.24610000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>151</c:v>
+                  <c:v>160.47149999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>302</c:v>
+                  <c:v>305.07740000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>51</c:v>
+                  <c:v>63.356403</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>116</c:v>
+                  <c:v>137.07653999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>48</c:v>
+                  <c:v>64.210710000000006</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>59</c:v>
+                  <c:v>71.449700000000007</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>65</c:v>
+                  <c:v>84.593509999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,7 +525,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-08F3-4F53-94C0-AF3C2806A555}"/>
+              <c16:uniqueId val="{00000000-08F3-4F53-94C0-AF3C2806A555}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -652,6 +658,32 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -733,6 +765,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Projected Data vs. Actual Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1332,6 +1394,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Projected Data vs. Actual Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1931,6 +2023,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Projected Data vs. Actual Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2530,6 +2652,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Projected Data vs. Actual Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6344,40 +6491,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>41</v>
       </c>
@@ -6397,7 +6544,7 @@
         <v>620.81280000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -6417,7 +6564,7 @@
         <v>104.92717</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>31</v>
       </c>
@@ -6437,7 +6584,7 @@
         <v>70.317154000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>119</v>
       </c>
@@ -6457,7 +6604,7 @@
         <v>60.561120000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>203</v>
       </c>
@@ -6477,7 +6624,7 @@
         <v>100.5945</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>122</v>
       </c>
@@ -6497,7 +6644,7 @@
         <v>97.203209999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>241</v>
       </c>
@@ -6517,7 +6664,7 @@
         <v>182.66417000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>312</v>
       </c>
@@ -6537,7 +6684,7 @@
         <v>327.28397000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>268</v>
       </c>
@@ -6557,7 +6704,7 @@
         <v>353.3381</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>131</v>
       </c>
@@ -6577,7 +6724,7 @@
         <v>379.00986</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>657</v>
       </c>
@@ -6597,7 +6744,7 @@
         <v>130.47824</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>242</v>
       </c>
@@ -6617,7 +6764,7 @@
         <v>216.99611999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>405</v>
       </c>
@@ -6637,7 +6784,7 @@
         <v>265.74581999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>94</v>
       </c>
@@ -6657,7 +6804,7 @@
         <v>258.01343000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>168</v>
       </c>
@@ -6677,7 +6824,7 @@
         <v>243.30865</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>345</v>
       </c>
@@ -6697,7 +6844,7 @@
         <v>385.80957000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>602</v>
       </c>
@@ -6717,7 +6864,7 @@
         <v>241.53975</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>605</v>
       </c>
@@ -6737,7 +6884,7 @@
         <v>286.82074</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>777</v>
       </c>
@@ -6757,7 +6904,7 @@
         <v>208.47355999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>218</v>
       </c>
@@ -6777,7 +6924,7 @@
         <v>569.66583000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>304</v>
       </c>
@@ -6797,7 +6944,7 @@
         <v>419.99338</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>463</v>
       </c>
@@ -6817,7 +6964,7 @@
         <v>291.74579999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>166</v>
       </c>
@@ -6837,7 +6984,7 @@
         <v>489.38350000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>263</v>
       </c>
@@ -6857,7 +7004,7 @@
         <v>410.48557</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1757</v>
       </c>
@@ -6877,7 +7024,7 @@
         <v>298.08337</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1100</v>
       </c>
@@ -6897,7 +7044,7 @@
         <v>333.2276</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1669</v>
       </c>
@@ -6917,7 +7064,7 @@
         <v>245.50700000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>396</v>
       </c>
@@ -6937,7 +7084,7 @@
         <v>363.02373999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>607</v>
       </c>
@@ -6957,7 +7104,7 @@
         <v>381.13690000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>463</v>
       </c>
@@ -6977,7 +7124,7 @@
         <v>315.93470000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1505</v>
       </c>
@@ -6997,7 +7144,7 @@
         <v>400.94287000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1058</v>
       </c>
@@ -7017,7 +7164,7 @@
         <v>307.41116</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>722</v>
       </c>
@@ -7037,7 +7184,7 @@
         <v>501.88229999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1330</v>
       </c>
@@ -7057,7 +7204,7 @@
         <v>440.00754000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>1508</v>
       </c>
@@ -7077,7 +7224,7 @@
         <v>455.24847</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>366</v>
       </c>
@@ -7097,7 +7244,7 @@
         <v>203.01009999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>363</v>
       </c>
@@ -7117,7 +7264,7 @@
         <v>305.02681999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>151</v>
       </c>
@@ -7137,7 +7284,7 @@
         <v>480.93905999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>302</v>
       </c>
@@ -7157,7 +7304,7 @@
         <v>464.16323999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>51</v>
       </c>
@@ -7177,7 +7324,7 @@
         <v>385.80669999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>116</v>
       </c>
@@ -7197,7 +7344,7 @@
         <v>420.57468</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>48</v>
       </c>
@@ -7217,7 +7364,7 @@
         <v>350.16223000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>59</v>
       </c>
@@ -7237,7 +7384,7 @@
         <v>454.2681</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>65</v>
       </c>
